--- a/Lamia/DBASE/create/Base2_0_6.xlsx
+++ b/Lamia/DBASE/create/Base2_0_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\OneDrive - ARTELIA\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFCB7C3-DCDC-4798-B265-FF1ED640E230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7DFCB7C3-DCDC-4798-B265-FF1ED640E230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D8B7327B-4353-4BA3-AC4F-5A77D8355B6F}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <sheet name="10_siartelia" sheetId="49" r:id="rId48"/>
     <sheet name="11_utilisateur" sheetId="50" r:id="rId49"/>
   </sheets>
-  <calcPr calcId="0" iterateCount="1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1876,13 +1876,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1969,35 +1976,36 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -4242,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,7 +4503,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="19" t="s">
         <v>280</v>
       </c>
       <c r="B27" t="s">
@@ -9001,7 +9009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>

--- a/Lamia/DBASE/create/Base2_0_6.xlsx
+++ b/Lamia/DBASE/create/Base2_0_6.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raphael.beck-protoy\Documents\Git\Lamia\Lamia\DBASE\create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFCB7C3-DCDC-4798-B265-FF1ED640E230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" firstSheet="18" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -34,36 +33,37 @@
     <sheet name="04_Profil" sheetId="20" r:id="rId19"/>
     <sheet name="05_Graphique" sheetId="21" r:id="rId20"/>
     <sheet name="05_Modele" sheetId="22" r:id="rId21"/>
-    <sheet name="05_Photo" sheetId="23" r:id="rId22"/>
-    <sheet name="05_Rapport" sheetId="24" r:id="rId23"/>
-    <sheet name="05_Rasters" sheetId="25" r:id="rId24"/>
-    <sheet name="05_Topographie" sheetId="26" r:id="rId25"/>
-    <sheet name="05_Travaux" sheetId="27" r:id="rId26"/>
-    <sheet name="06_Graphiquedata" sheetId="28" r:id="rId27"/>
-    <sheet name="06_Pointtopo" sheetId="29" r:id="rId28"/>
-    <sheet name="06_Tcetudetravaux" sheetId="30" r:id="rId29"/>
-    <sheet name="06_Tcobjetintervenant" sheetId="31" r:id="rId30"/>
-    <sheet name="06_Tcobjetressource" sheetId="32" r:id="rId31"/>
-    <sheet name="06_Tcobjetzonegeo" sheetId="33" r:id="rId32"/>
-    <sheet name="06_Tctravauxdescriptionsystem" sheetId="34" r:id="rId33"/>
-    <sheet name="10_auth_group" sheetId="35" r:id="rId34"/>
-    <sheet name="10_auth_group_permissions" sheetId="36" r:id="rId35"/>
-    <sheet name="10_auth_permission" sheetId="37" r:id="rId36"/>
-    <sheet name="10_auth_user" sheetId="38" r:id="rId37"/>
-    <sheet name="10_auth_user_groups" sheetId="39" r:id="rId38"/>
-    <sheet name="10_auth_user_user_permissions" sheetId="40" r:id="rId39"/>
-    <sheet name="10_bdd" sheetId="41" r:id="rId40"/>
-    <sheet name="10_carto_layer" sheetId="42" r:id="rId41"/>
-    <sheet name="10_django_admin_log" sheetId="43" r:id="rId42"/>
-    <sheet name="10_django_content_type" sheetId="44" r:id="rId43"/>
-    <sheet name="10_django_migrations" sheetId="45" r:id="rId44"/>
-    <sheet name="10_django_session" sheetId="46" r:id="rId45"/>
-    <sheet name="10_messagetiers" sheetId="47" r:id="rId46"/>
-    <sheet name="10_projet" sheetId="48" r:id="rId47"/>
-    <sheet name="10_siartelia" sheetId="49" r:id="rId48"/>
-    <sheet name="11_utilisateur" sheetId="50" r:id="rId49"/>
+    <sheet name="05_Audio" sheetId="51" r:id="rId22"/>
+    <sheet name="05_Photo" sheetId="23" r:id="rId23"/>
+    <sheet name="05_Rapport" sheetId="24" r:id="rId24"/>
+    <sheet name="05_Rasters" sheetId="25" r:id="rId25"/>
+    <sheet name="05_Topographie" sheetId="26" r:id="rId26"/>
+    <sheet name="05_Travaux" sheetId="27" r:id="rId27"/>
+    <sheet name="06_Graphiquedata" sheetId="28" r:id="rId28"/>
+    <sheet name="06_Pointtopo" sheetId="29" r:id="rId29"/>
+    <sheet name="06_Tcetudetravaux" sheetId="30" r:id="rId30"/>
+    <sheet name="06_Tcobjetintervenant" sheetId="31" r:id="rId31"/>
+    <sheet name="06_Tcobjetressource" sheetId="32" r:id="rId32"/>
+    <sheet name="06_Tcobjetzonegeo" sheetId="33" r:id="rId33"/>
+    <sheet name="06_Tctravauxdescriptionsystem" sheetId="34" r:id="rId34"/>
+    <sheet name="10_auth_group" sheetId="35" r:id="rId35"/>
+    <sheet name="10_auth_group_permissions" sheetId="36" r:id="rId36"/>
+    <sheet name="10_auth_permission" sheetId="37" r:id="rId37"/>
+    <sheet name="10_auth_user" sheetId="38" r:id="rId38"/>
+    <sheet name="10_auth_user_groups" sheetId="39" r:id="rId39"/>
+    <sheet name="10_auth_user_user_permissions" sheetId="40" r:id="rId40"/>
+    <sheet name="10_bdd" sheetId="41" r:id="rId41"/>
+    <sheet name="10_carto_layer" sheetId="42" r:id="rId42"/>
+    <sheet name="10_django_admin_log" sheetId="43" r:id="rId43"/>
+    <sheet name="10_django_content_type" sheetId="44" r:id="rId44"/>
+    <sheet name="10_django_migrations" sheetId="45" r:id="rId45"/>
+    <sheet name="10_django_session" sheetId="46" r:id="rId46"/>
+    <sheet name="10_messagetiers" sheetId="47" r:id="rId47"/>
+    <sheet name="10_projet" sheetId="48" r:id="rId48"/>
+    <sheet name="10_siartelia" sheetId="49" r:id="rId49"/>
+    <sheet name="11_utilisateur" sheetId="50" r:id="rId50"/>
   </sheets>
-  <calcPr calcId="0" iterateCount="1"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="587">
   <si>
     <t>#DJAN</t>
   </si>
@@ -1812,77 +1812,48 @@
     <t>courriel</t>
   </si>
   <si>
-    <t>float_1</t>
-  </si>
-  <si>
-    <t>float_2</t>
-  </si>
-  <si>
-    <t>float_3</t>
-  </si>
-  <si>
-    <t>float_4</t>
-  </si>
-  <si>
-    <t>float_5</t>
-  </si>
-  <si>
-    <t>float_6</t>
-  </si>
-  <si>
-    <t>float_7</t>
-  </si>
-  <si>
-    <t>float_8</t>
-  </si>
-  <si>
-    <t>float_9</t>
-  </si>
-  <si>
-    <t>float_10</t>
-  </si>
-  <si>
-    <t>string_1</t>
-  </si>
-  <si>
-    <t>string_2</t>
-  </si>
-  <si>
-    <t>string_3</t>
-  </si>
-  <si>
-    <t>string_4</t>
-  </si>
-  <si>
-    <t>string_5</t>
-  </si>
-  <si>
-    <t>string_6</t>
-  </si>
-  <si>
-    <t>string_7</t>
-  </si>
-  <si>
-    <t>string_8</t>
-  </si>
-  <si>
-    <t>string_9</t>
-  </si>
-  <si>
-    <t>string_10</t>
+    <t>pk_audio</t>
+  </si>
+  <si>
+    <t>id_audio</t>
+  </si>
+  <si>
+    <t>typeaudio</t>
+  </si>
+  <si>
+    <t>SELECT Audio.*, Ressource.*, Objet.*  FROM Audio INNER JOIN Ressource ON Audio.lpk_ressource = Ressource.pk_ressource INNER JOIN Objet ON Ressource.lpk_objet = Objet.pk_objet WHERE Objet.lpk_revision_end IS NULL  AND Objet.datetimedestruction IS NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT Audio.*, Ressource.*, Objet.*   FROM Audio INNER JOIN Ressource ON Audio.lpk_ressource = Ressource.pk_ressource INNER JOIN Objet ON Ressource.lpk_objet = Objet.pk_objet</t>
+  </si>
+  <si>
+    <t>05_Audio</t>
+  </si>
+  <si>
+    <t>id_commentaire</t>
+  </si>
+  <si>
+    <t>id_table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1969,44 +1940,45 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2097,23 +2069,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2149,23 +2104,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2341,11 +2279,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,244 +2486,253 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>376</v>
+        <v>584</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>HYPERLINK('05_Audio'!A1)</f>
+        <v>#DJAN</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>558</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>561</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>562</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'00_Basedonnees'!A1" display="'00_Basedonnees'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" location="'00_Revision'!A1" display="'00_Revision'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" location="'01_Objet'!A1" display="'01_Objet'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B4" location="'02_Descriptionsystem'!A1" display="'02_Descriptionsystem'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B5" location="'02_Evenement'!A1" display="'02_Evenement'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B6" location="'02_Marche'!A1" display="'02_Marche'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" location="'02_Zonegeo'!A1" display="'02_Zonegeo'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" location="'03_Desordre'!A1" display="'03_Desordre'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" location="'03_Interventiontiers'!A1" display="'03_Interventiontiers'!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" location="'03_Ressource'!A1" display="'03_Ressource'!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" location="'04_Infralineaire'!A1" display="'04_Infralineaire'!A1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B12" location="'04_Environnement'!A1" display="'04_Environnement'!A1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B13" location="'04_Equipement'!A1" display="'04_Equipement'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B14" location="'04_Etudestrategie'!A1" display="'04_Etudestrategie'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B15" location="'04_Noeud'!A1" display="'04_Noeud'!A1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B16" location="'04_Observation'!A1" display="'04_Observation'!A1" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B17" location="'04_Profil'!A1" display="'04_Profil'!A1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B18" location="'05_Graphique'!A1" display="'05_Graphique'!A1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B19" location="'05_Modele'!A1" display="'05_Modele'!A1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B20" location="'05_Photo'!A1" display="'05_Photo'!A1" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B21" location="'05_Rapport'!A1" display="'05_Rapport'!A1" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B22" location="'05_Rasters'!A1" display="'05_Rasters'!A1" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B23" location="'05_Topographie'!A1" display="'05_Topographie'!A1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B24" location="'05_Travaux'!A1" display="'05_Travaux'!A1" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B25" location="'06_Graphiquedata'!A1" display="'06_Graphiquedata'!A1" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B26" location="'06_Pointtopo'!A1" display="'06_Pointtopo'!A1" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B27" location="'06_Tcetudetravaux'!A1" display="'06_Tcetudetravaux'!A1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B28" location="'06_Tcobjetintervenant'!A1" display="'06_Tcobjetintervenant'!A1" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B29" location="'06_Tcobjetressource'!A1" display="'06_Tcobjetressource'!A1" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B30" location="'06_Tcobjetzonegeo'!A1" display="'06_Tcobjetzonegeo'!A1" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B31" location="'06_Tctravauxdescriptionsystem'!A1" display="'06_Tctravauxdescriptionsystem'!A1" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B32" location="'10_auth_group'!A1" display="'10_auth_group'!A1" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B33" location="'10_auth_group_permissions'!A1" display="'10_auth_group_permissions'!A1" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B34" location="'10_auth_permission'!A1" display="'10_auth_permission'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B35" location="'10_auth_user'!A1" display="'10_auth_user'!A1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B36" location="'10_auth_user_groups'!A1" display="'10_auth_user_groups'!A1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B37" location="'10_auth_user_user_permissions'!A1" display="'10_auth_user_user_permissions'!A1" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B38" location="'10_bdd'!A1" display="'10_bdd'!A1" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B39" location="'10_carto_layer'!A1" display="'10_carto_layer'!A1" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B40" location="'10_django_admin_log'!A1" display="'10_django_admin_log'!A1" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B41" location="'10_django_content_type'!A1" display="'10_django_content_type'!A1" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B42" location="'10_django_migrations'!A1" display="'10_django_migrations'!A1" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B43" location="'10_django_session'!A1" display="'10_django_session'!A1" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B44" location="'10_messagetiers'!A1" display="'10_messagetiers'!A1" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B45" location="'10_projet'!A1" display="'10_projet'!A1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B46" location="'10_siartelia'!A1" display="'10_siartelia'!A1" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B47" location="'11_utilisateur'!A1" display="'11_utilisateur'!A1" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B1" location="'00_Basedonnees'!A1" display="'00_Basedonnees'!A1"/>
+    <hyperlink ref="B2" location="'00_Revision'!A1" display="'00_Revision'!A1"/>
+    <hyperlink ref="B3" location="'01_Objet'!A1" display="'01_Objet'!A1"/>
+    <hyperlink ref="B4" location="'02_Descriptionsystem'!A1" display="'02_Descriptionsystem'!A1"/>
+    <hyperlink ref="B5" location="'02_Evenement'!A1" display="'02_Evenement'!A1"/>
+    <hyperlink ref="B6" location="'02_Marche'!A1" display="'02_Marche'!A1"/>
+    <hyperlink ref="B7" location="'02_Zonegeo'!A1" display="'02_Zonegeo'!A1"/>
+    <hyperlink ref="B8" location="'03_Desordre'!A1" display="'03_Desordre'!A1"/>
+    <hyperlink ref="B9" location="'03_Interventiontiers'!A1" display="'03_Interventiontiers'!A1"/>
+    <hyperlink ref="B10" location="'03_Ressource'!A1" display="'03_Ressource'!A1"/>
+    <hyperlink ref="B11" location="'04_Infralineaire'!A1" display="'04_Infralineaire'!A1"/>
+    <hyperlink ref="B12" location="'04_Environnement'!A1" display="'04_Environnement'!A1"/>
+    <hyperlink ref="B13" location="'04_Equipement'!A1" display="'04_Equipement'!A1"/>
+    <hyperlink ref="B14" location="'04_Etudestrategie'!A1" display="'04_Etudestrategie'!A1"/>
+    <hyperlink ref="B15" location="'04_Noeud'!A1" display="'04_Noeud'!A1"/>
+    <hyperlink ref="B16" location="'04_Observation'!A1" display="'04_Observation'!A1"/>
+    <hyperlink ref="B17" location="'04_Profil'!A1" display="'04_Profil'!A1"/>
+    <hyperlink ref="B18" location="'05_Graphique'!A1" display="'05_Graphique'!A1"/>
+    <hyperlink ref="B19" location="'05_Modele'!A1" display="'05_Modele'!A1"/>
+    <hyperlink ref="B20" location="'05_Photo'!A1" display="'05_Photo'!A1"/>
+    <hyperlink ref="B21" location="'05_Rapport'!A1" display="'05_Rapport'!A1"/>
+    <hyperlink ref="B22" location="'05_Rasters'!A1" display="'05_Rasters'!A1"/>
+    <hyperlink ref="B23" location="'05_Topographie'!A1" display="'05_Topographie'!A1"/>
+    <hyperlink ref="B24" location="'05_Travaux'!A1" display="'05_Travaux'!A1"/>
+    <hyperlink ref="B26" location="'06_Graphiquedata'!A1" display="'06_Graphiquedata'!A1"/>
+    <hyperlink ref="B27" location="'06_Pointtopo'!A1" display="'06_Pointtopo'!A1"/>
+    <hyperlink ref="B28" location="'06_Tcetudetravaux'!A1" display="'06_Tcetudetravaux'!A1"/>
+    <hyperlink ref="B29" location="'06_Tcobjetintervenant'!A1" display="'06_Tcobjetintervenant'!A1"/>
+    <hyperlink ref="B30" location="'06_Tcobjetressource'!A1" display="'06_Tcobjetressource'!A1"/>
+    <hyperlink ref="B31" location="'06_Tcobjetzonegeo'!A1" display="'06_Tcobjetzonegeo'!A1"/>
+    <hyperlink ref="B32" location="'06_Tctravauxdescriptionsystem'!A1" display="'06_Tctravauxdescriptionsystem'!A1"/>
+    <hyperlink ref="B33" location="'10_auth_group'!A1" display="'10_auth_group'!A1"/>
+    <hyperlink ref="B34" location="'10_auth_group_permissions'!A1" display="'10_auth_group_permissions'!A1"/>
+    <hyperlink ref="B35" location="'10_auth_permission'!A1" display="'10_auth_permission'!A1"/>
+    <hyperlink ref="B36" location="'10_auth_user'!A1" display="'10_auth_user'!A1"/>
+    <hyperlink ref="B37" location="'10_auth_user_groups'!A1" display="'10_auth_user_groups'!A1"/>
+    <hyperlink ref="B38" location="'10_auth_user_user_permissions'!A1" display="'10_auth_user_user_permissions'!A1"/>
+    <hyperlink ref="B39" location="'10_bdd'!A1" display="'10_bdd'!A1"/>
+    <hyperlink ref="B40" location="'10_carto_layer'!A1" display="'10_carto_layer'!A1"/>
+    <hyperlink ref="B41" location="'10_django_admin_log'!A1" display="'10_django_admin_log'!A1"/>
+    <hyperlink ref="B42" location="'10_django_content_type'!A1" display="'10_django_content_type'!A1"/>
+    <hyperlink ref="B43" location="'10_django_migrations'!A1" display="'10_django_migrations'!A1"/>
+    <hyperlink ref="B44" location="'10_django_session'!A1" display="'10_django_session'!A1"/>
+    <hyperlink ref="B45" location="'10_messagetiers'!A1" display="'10_messagetiers'!A1"/>
+    <hyperlink ref="B46" location="'10_projet'!A1" display="'10_projet'!A1"/>
+    <hyperlink ref="B47" location="'10_siartelia'!A1" display="'10_siartelia'!A1"/>
+    <hyperlink ref="B48" location="'11_utilisateur'!A1" display="'11_utilisateur'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2989,7 +2936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3220,7 +3167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3440,7 +3387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3612,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3753,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3934,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4090,7 +4037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4239,12 +4186,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4524,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4705,7 +4650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4861,7 +4806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4997,7 +4942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5146,11 +5091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5173,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5196,9 +5141,6 @@
       <c r="A5" t="s">
         <v>567</v>
       </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5217,18 +5159,18 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>585</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>586</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>323</v>
+      <c r="A7" s="19" t="s">
+        <v>579</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -5238,8 +5180,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>324</v>
+      <c r="A8" s="18" t="s">
+        <v>580</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5249,7 +5191,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="19" t="s">
         <v>301</v>
       </c>
       <c r="B9" t="s">
@@ -5263,41 +5205,27 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>325</v>
+      <c r="A11" s="18" t="s">
+        <v>581</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>294</v>
+      <c r="A12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>224</v>
+      <c r="A13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5306,12 +5234,168 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" style="6" customWidth="1"/>
+    <col min="2" max="8" width="23.28515625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5435,8 +5519,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5634,8 +5718,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5758,13 +5842,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5989,13 +6071,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6195,8 +6275,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6449,144 +6529,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.7109375" style="6" customWidth="1"/>
-    <col min="2" max="9" width="29.140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>567</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6702,7 +6646,143 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="6" customWidth="1"/>
+    <col min="2" max="9" width="29.140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6894,12 +6974,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A12" sqref="A11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,8 +7107,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7162,8 +7242,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7296,8 +7376,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7358,8 +7438,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7428,8 +7508,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7506,8 +7586,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7702,8 +7782,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7772,78 +7852,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" style="10" customWidth="1"/>
-    <col min="2" max="10" width="19" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8059,7 +8069,77 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" style="10" customWidth="1"/>
+    <col min="2" max="10" width="19" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8152,8 +8232,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8254,8 +8334,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8364,8 +8444,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8434,8 +8514,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8512,8 +8592,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8582,8 +8662,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8728,8 +8808,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8870,8 +8950,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8924,85 +9004,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
-  <dimension ref="A1:H4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.28515625" style="10" customWidth="1"/>
-    <col min="2" max="8" width="24.7109375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J74"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9412,174 +9419,87 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" style="10" customWidth="1"/>
+    <col min="2" max="8" width="24.7109375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9751,11 +9671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9934,7 +9854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10077,7 +9997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Lamia/DBASE/create/Base2_0_6.xlsx
+++ b/Lamia/DBASE/create/Base2_0_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\OneDrive - ARTELIA\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7DFCB7C3-DCDC-4798-B265-FF1ED640E230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D8B7327B-4353-4BA3-AC4F-5A77D8355B6F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{7DFCB7C3-DCDC-4798-B265-FF1ED640E230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{264B57F6-671D-46E0-95D8-4E65839AB31D}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="767" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="600">
   <si>
     <t>#DJAN</t>
   </si>
@@ -1551,12 +1551,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>SELECT  Bdd.*, Objet.*, Ressource.* FROM Bdd INNER JOIN Ressource ON Ressource.id_ressource = Bdd.id_ressource INNER JOIN  Objet ON  Bdd.id_objet = Objet.id_objet</t>
-  </si>
-  <si>
-    <t>SELECT  Bdd.*, Objet.datetimecreation, Objet.datetimedestruction, Ressource.lid_marche  FROM Bdd INNER JOIN Ressource ON Ressource.id_ressource = Bdd.id_ressource INNER JOIN  Objet ON  Bdd.id_objet = Objet.id_objet</t>
-  </si>
-  <si>
     <t>id_bdd</t>
   </si>
   <si>
@@ -1870,19 +1864,35 @@
   </si>
   <si>
     <t>string_10</t>
+  </si>
+  <si>
+    <t>SELECT  Bdd.*, Objet.*, Ressource.* FROM Bdd INNER JOIN Ressource ON Ressource.id_ressource = Bdd.lid_ressource INNER JOIN  Objet ON  Bdd.lid_objet = Objet.id_objet</t>
+  </si>
+  <si>
+    <t>SELECT  Bdd.*, Objet.datetimecreation, Objet.datetimedestruction, Ressource.lid_marche  FROM Bdd INNER JOIN Ressource ON Ressource.id_ressource = Bdd.lid_ressource INNER JOIN  Objet ON  Bdd.lid_objet = Objet.id_objet</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1976,38 +1986,39 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2356,13 +2367,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>226</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>227</v>
       </c>
@@ -2378,7 +2389,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -2394,7 +2405,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>237</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -2442,7 +2453,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -2450,7 +2461,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -2458,7 +2469,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -2466,7 +2477,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -2474,7 +2485,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>253</v>
       </c>
@@ -2482,7 +2493,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>282</v>
       </c>
@@ -2490,7 +2501,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>306</v>
       </c>
@@ -2498,7 +2509,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>317</v>
       </c>
@@ -2514,7 +2525,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>330</v>
       </c>
@@ -2522,7 +2533,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>332</v>
       </c>
@@ -2530,7 +2541,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>338</v>
       </c>
@@ -2538,7 +2549,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>362</v>
       </c>
@@ -2546,7 +2557,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -2554,7 +2565,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>375</v>
       </c>
@@ -2562,7 +2573,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>392</v>
       </c>
@@ -2570,7 +2581,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>415</v>
       </c>
@@ -2578,7 +2589,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>439</v>
       </c>
@@ -2586,7 +2597,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>445</v>
       </c>
@@ -2594,7 +2605,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>451</v>
       </c>
@@ -2602,7 +2613,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>453</v>
       </c>
@@ -2610,7 +2621,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>461</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>463</v>
       </c>
@@ -2626,7 +2637,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>469</v>
       </c>
@@ -2634,7 +2645,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>471</v>
       </c>
@@ -2642,100 +2653,100 @@
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>494</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>496</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>498</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>500</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>502</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>561</v>
-      </c>
       <c r="B47" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -2800,15 +2811,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="21.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" style="3" customWidth="1"/>
-    <col min="5" max="7" width="21.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="3" width="21.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="21.88671875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2828,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2826,7 +2837,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2835,7 +2846,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2844,16 +2855,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2879,7 +2890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -2901,7 +2912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2915,7 +2926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>143</v>
       </c>
@@ -2932,7 +2943,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="3" t="s">
         <v>147</v>
       </c>
@@ -2940,7 +2951,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13" s="3" t="s">
         <v>149</v>
       </c>
@@ -2948,7 +2959,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>151</v>
       </c>
@@ -2956,7 +2967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>152</v>
       </c>
@@ -2964,7 +2975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>153</v>
       </c>
@@ -2972,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>154</v>
       </c>
@@ -2983,7 +2994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>120</v>
       </c>
@@ -3004,14 +3015,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="3" customWidth="1"/>
-    <col min="2" max="13" width="23.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="24.6640625" style="3" customWidth="1"/>
+    <col min="2" max="13" width="23.109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3020,7 +3031,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3029,7 +3040,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3038,7 +3049,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -3047,16 +3058,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>158</v>
       </c>
@@ -3094,7 +3105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>159</v>
       </c>
@@ -3106,7 +3117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -3120,7 +3131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>160</v>
       </c>
@@ -3128,7 +3139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
@@ -3136,7 +3147,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -3144,7 +3155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -3166,7 +3177,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F16" s="3" t="s">
         <v>166</v>
       </c>
@@ -3174,7 +3185,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F17" s="3" t="s">
         <v>168</v>
       </c>
@@ -3182,7 +3193,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F18" s="3" t="s">
         <v>170</v>
       </c>
@@ -3190,7 +3201,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F19" s="3" t="s">
         <v>172</v>
       </c>
@@ -3198,7 +3209,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F20" s="3" t="s">
         <v>174</v>
       </c>
@@ -3206,7 +3217,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>176</v>
       </c>
@@ -3214,7 +3225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>177</v>
       </c>
@@ -3235,17 +3246,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="35.28515625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="23.5546875" style="3" customWidth="1"/>
+    <col min="2" max="5" width="35.33203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="18.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3254,7 +3265,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3263,7 +3274,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3272,7 +3283,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -3281,16 +3292,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3316,7 +3327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>182</v>
       </c>
@@ -3328,7 +3339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>183</v>
       </c>
@@ -3340,7 +3351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -3354,7 +3365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>184</v>
       </c>
@@ -3362,7 +3373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>185</v>
       </c>
@@ -3370,7 +3381,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>186</v>
       </c>
@@ -3378,7 +3389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>187</v>
       </c>
@@ -3386,7 +3397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>188</v>
       </c>
@@ -3394,7 +3405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>189</v>
       </c>
@@ -3402,7 +3413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>190</v>
       </c>
@@ -3410,7 +3421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>191</v>
       </c>
@@ -3418,7 +3429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -3426,7 +3437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>192</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>193</v>
       </c>
@@ -3455,17 +3466,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
     <col min="5" max="8" width="23" customWidth="1"/>
-    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3484,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3492,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3489,7 +3500,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -3497,15 +3508,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3531,12 +3542,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -3547,7 +3558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -3572,7 +3583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -3594,7 +3605,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -3605,7 +3616,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -3627,17 +3638,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="3" customWidth="1"/>
-    <col min="4" max="7" width="21.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="21.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="3" customWidth="1"/>
+    <col min="4" max="7" width="21.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3645,7 +3656,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3653,7 +3664,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -3669,15 +3680,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3703,7 +3714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>197</v>
       </c>
@@ -3714,7 +3725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>198</v>
       </c>
@@ -3725,7 +3736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>127</v>
       </c>
@@ -3739,7 +3750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>154</v>
       </c>
@@ -3747,7 +3758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -3768,16 +3779,16 @@
       <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" style="3" customWidth="1"/>
-    <col min="5" max="9" width="18.5703125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="29.5546875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="18.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" style="3" customWidth="1"/>
+    <col min="5" max="9" width="18.5546875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3785,7 +3796,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3793,7 +3804,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3801,7 +3812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -3809,15 +3820,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>203</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>204</v>
       </c>
@@ -3867,7 +3878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>127</v>
       </c>
@@ -3881,7 +3892,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>205</v>
       </c>
@@ -3898,7 +3909,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="3" t="s">
         <v>209</v>
       </c>
@@ -3906,7 +3917,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>128</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>130</v>
       </c>
@@ -3928,7 +3939,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -3949,14 +3960,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="3" customWidth="1"/>
-    <col min="2" max="11" width="28.140625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="21.44140625" style="3" customWidth="1"/>
+    <col min="2" max="11" width="28.109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3964,7 +3975,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3972,7 +3983,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3980,7 +3991,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -3988,15 +3999,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +4033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -4034,7 +4045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>216</v>
       </c>
@@ -4046,7 +4057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4060,7 +4071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>217</v>
       </c>
@@ -4068,7 +4079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>218</v>
       </c>
@@ -4076,7 +4087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>219</v>
       </c>
@@ -4084,7 +4095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>193</v>
       </c>
@@ -4105,17 +4116,17 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="8" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="31.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="3" customWidth="1"/>
+    <col min="5" max="8" width="18.5546875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4123,7 +4134,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4131,7 +4142,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -4139,7 +4150,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -4147,15 +4158,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4181,7 +4192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>222</v>
       </c>
@@ -4193,7 +4204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>223</v>
       </c>
@@ -4205,7 +4216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>127</v>
       </c>
@@ -4219,7 +4230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>130</v>
       </c>
@@ -4233,7 +4244,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>120</v>
       </c>
@@ -4250,18 +4261,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
+    <col min="2" max="8" width="25.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4269,7 +4280,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4277,7 +4288,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -4285,7 +4296,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -4293,15 +4304,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4327,7 +4338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>257</v>
       </c>
@@ -4339,7 +4350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>258</v>
       </c>
@@ -4351,7 +4362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4365,7 +4376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>259</v>
       </c>
@@ -4373,7 +4384,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>184</v>
       </c>
@@ -4381,7 +4392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>260</v>
       </c>
@@ -4389,7 +4400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>261</v>
       </c>
@@ -4400,7 +4411,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F15" s="3" t="s">
         <v>263</v>
       </c>
@@ -4408,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F16" s="3" t="s">
         <v>264</v>
       </c>
@@ -4416,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F17" s="3" t="s">
         <v>265</v>
       </c>
@@ -4424,7 +4435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F18" s="3" t="s">
         <v>266</v>
       </c>
@@ -4432,20 +4443,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>599</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>269</v>
@@ -4454,7 +4465,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="s">
         <v>271</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F22" s="3" t="s">
         <v>273</v>
       </c>
@@ -4470,7 +4481,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F23" s="3" t="s">
         <v>275</v>
       </c>
@@ -4478,7 +4489,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F24" s="3" t="s">
         <v>277</v>
       </c>
@@ -4486,31 +4497,31 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F25" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>193</v>
       </c>
@@ -4518,7 +4529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>281</v>
       </c>
@@ -4539,14 +4550,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="6" customWidth="1"/>
-    <col min="2" max="8" width="25.28515625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="28.6640625" style="6" customWidth="1"/>
+    <col min="2" max="8" width="25.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4554,7 +4565,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -4570,7 +4581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -4578,15 +4589,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4612,7 +4623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>286</v>
       </c>
@@ -4624,7 +4635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>287</v>
       </c>
@@ -4636,7 +4647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
@@ -4650,7 +4661,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>288</v>
       </c>
@@ -4658,7 +4669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>289</v>
       </c>
@@ -4672,7 +4683,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="s">
         <v>291</v>
       </c>
@@ -4680,7 +4691,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13" s="6" t="s">
         <v>292</v>
       </c>
@@ -4688,7 +4699,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>154</v>
       </c>
@@ -4699,7 +4710,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -4720,25 +4731,25 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="5" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -4746,7 +4757,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -4754,15 +4765,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4788,7 +4799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4799,7 +4810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4810,7 +4821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4821,7 +4832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4832,7 +4843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4843,7 +4854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4854,9 +4865,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4876,14 +4887,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="6" customWidth="1"/>
     <col min="2" max="10" width="25" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="6"/>
+    <col min="11" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4891,7 +4902,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4899,7 +4910,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -4907,7 +4918,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -4915,15 +4926,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4949,7 +4960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>299</v>
       </c>
@@ -4960,7 +4971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>300</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>301</v>
       </c>
@@ -4985,7 +4996,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>303</v>
       </c>
@@ -5012,14 +5023,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="6" customWidth="1"/>
-    <col min="2" max="8" width="31.42578125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="30.33203125" style="6" customWidth="1"/>
+    <col min="2" max="8" width="31.44140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5027,7 +5038,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5035,7 +5046,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5043,7 +5054,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5051,15 +5062,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5085,7 +5096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>312</v>
       </c>
@@ -5096,7 +5107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>313</v>
       </c>
@@ -5107,7 +5118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>301</v>
       </c>
@@ -5121,10 +5132,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>314</v>
       </c>
@@ -5132,7 +5143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>315</v>
       </c>
@@ -5140,7 +5151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>316</v>
       </c>
@@ -5161,14 +5172,14 @@
       <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="6" customWidth="1"/>
-    <col min="2" max="8" width="23.28515625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="37.6640625" style="6" customWidth="1"/>
+    <col min="2" max="8" width="23.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5176,7 +5187,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5184,7 +5195,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5192,7 +5203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5200,15 +5211,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5234,7 +5245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>323</v>
       </c>
@@ -5245,7 +5256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>324</v>
       </c>
@@ -5256,7 +5267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>301</v>
       </c>
@@ -5270,7 +5281,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>325</v>
       </c>
@@ -5284,7 +5295,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="s">
         <v>291</v>
       </c>
@@ -5292,7 +5303,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13" s="6" t="s">
         <v>328</v>
       </c>
@@ -5300,7 +5311,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
@@ -5321,14 +5332,14 @@
       <selection activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="6" customWidth="1"/>
-    <col min="2" max="11" width="28.42578125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="38.88671875" style="6" customWidth="1"/>
+    <col min="2" max="11" width="28.44140625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5336,7 +5347,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5344,7 +5355,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5352,7 +5363,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5360,15 +5371,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5394,7 +5405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>336</v>
       </c>
@@ -5405,7 +5416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>337</v>
       </c>
@@ -5416,7 +5427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>301</v>
       </c>
@@ -5430,7 +5441,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>120</v>
       </c>
@@ -5451,16 +5462,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" style="6" customWidth="1"/>
     <col min="2" max="5" width="27" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="27" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="6"/>
+    <col min="8" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5468,7 +5479,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5476,7 +5487,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5484,7 +5495,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5492,15 +5503,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5526,7 +5537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>342</v>
       </c>
@@ -5537,7 +5548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>343</v>
       </c>
@@ -5548,7 +5559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>301</v>
       </c>
@@ -5562,7 +5573,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>345</v>
       </c>
@@ -5573,7 +5584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="s">
         <v>346</v>
       </c>
@@ -5581,7 +5592,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13" s="6" t="s">
         <v>348</v>
       </c>
@@ -5589,7 +5600,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F14" s="6" t="s">
         <v>350</v>
       </c>
@@ -5597,7 +5608,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
         <v>352</v>
       </c>
@@ -5605,7 +5616,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F16" s="6" t="s">
         <v>354</v>
       </c>
@@ -5613,7 +5624,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
         <v>356</v>
       </c>
@@ -5621,7 +5632,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="6" t="s">
         <v>358</v>
       </c>
@@ -5629,7 +5640,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="6" t="s">
         <v>360</v>
       </c>
@@ -5650,16 +5661,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="6" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="42.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="6" customWidth="1"/>
+    <col min="4" max="9" width="22.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5667,7 +5678,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5675,7 +5686,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5683,7 +5694,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5691,15 +5702,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5725,7 +5736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>366</v>
       </c>
@@ -5736,7 +5747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>367</v>
       </c>
@@ -5747,7 +5758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>301</v>
       </c>
@@ -5774,14 +5785,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="6" customWidth="1"/>
-    <col min="2" max="12" width="20.5703125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="38.6640625" style="6" customWidth="1"/>
+    <col min="2" max="12" width="20.5546875" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5789,7 +5800,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5797,7 +5808,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5805,7 +5816,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -5813,15 +5824,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5847,7 +5858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>372</v>
       </c>
@@ -5855,7 +5866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>373</v>
       </c>
@@ -5863,7 +5874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
@@ -5874,7 +5885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>160</v>
       </c>
@@ -5882,7 +5893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>161</v>
       </c>
@@ -5890,7 +5901,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>162</v>
       </c>
@@ -5898,7 +5909,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>163</v>
       </c>
@@ -5906,7 +5917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>164</v>
       </c>
@@ -5920,7 +5931,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F16" s="6" t="s">
         <v>166</v>
       </c>
@@ -5928,7 +5939,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
         <v>168</v>
       </c>
@@ -5936,7 +5947,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F18" s="6" t="s">
         <v>170</v>
       </c>
@@ -5944,7 +5955,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F19" s="6" t="s">
         <v>172</v>
       </c>
@@ -5952,7 +5963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F20" s="6" t="s">
         <v>174</v>
       </c>
@@ -5960,7 +5971,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>176</v>
       </c>
@@ -5968,7 +5979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>177</v>
       </c>
@@ -5976,7 +5987,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>374</v>
       </c>
@@ -5984,7 +5995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>193</v>
       </c>
@@ -6005,14 +6016,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="6" customWidth="1"/>
-    <col min="2" max="9" width="28.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="33.109375" style="6" customWidth="1"/>
+    <col min="2" max="9" width="28.44140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6020,7 +6031,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6028,7 +6039,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -6036,7 +6047,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6044,15 +6055,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6078,7 +6089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>379</v>
       </c>
@@ -6086,7 +6097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>380</v>
       </c>
@@ -6094,7 +6105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>381</v>
       </c>
@@ -6105,10 +6116,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>383</v>
       </c>
@@ -6122,7 +6133,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="s">
         <v>304</v>
       </c>
@@ -6130,7 +6141,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>385</v>
       </c>
@@ -6138,7 +6149,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>386</v>
       </c>
@@ -6146,7 +6157,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>387</v>
       </c>
@@ -6154,7 +6165,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>388</v>
       </c>
@@ -6165,7 +6176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>389</v>
       </c>
@@ -6176,7 +6187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>390</v>
       </c>
@@ -6187,7 +6198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>391</v>
       </c>
@@ -6211,16 +6222,16 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="21" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="6" customWidth="1"/>
     <col min="4" max="14" width="21" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="6"/>
+    <col min="15" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6228,7 +6239,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6236,7 +6247,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -6244,7 +6255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6252,15 +6263,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6286,7 +6297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>396</v>
       </c>
@@ -6294,7 +6305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>397</v>
       </c>
@@ -6302,7 +6313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>398</v>
       </c>
@@ -6313,7 +6324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>400</v>
       </c>
@@ -6327,7 +6338,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="s">
         <v>402</v>
       </c>
@@ -6335,7 +6346,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>385</v>
       </c>
@@ -6343,7 +6354,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>386</v>
       </c>
@@ -6351,7 +6362,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>404</v>
       </c>
@@ -6359,7 +6370,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>405</v>
       </c>
@@ -6367,7 +6378,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>406</v>
       </c>
@@ -6375,7 +6386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>407</v>
       </c>
@@ -6383,7 +6394,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>408</v>
       </c>
@@ -6391,7 +6402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>411</v>
       </c>
@@ -6399,7 +6410,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>409</v>
       </c>
@@ -6407,7 +6418,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>410</v>
       </c>
@@ -6415,7 +6426,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>412</v>
       </c>
@@ -6423,7 +6434,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>413</v>
       </c>
@@ -6431,7 +6442,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>414</v>
       </c>
@@ -6439,7 +6450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>120</v>
       </c>
@@ -6447,7 +6458,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>319</v>
       </c>
@@ -6465,14 +6476,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="6" customWidth="1"/>
-    <col min="2" max="9" width="29.140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="28.6640625" style="6" customWidth="1"/>
+    <col min="2" max="9" width="29.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6480,7 +6491,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6488,7 +6499,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -6496,7 +6507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6504,15 +6515,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6538,7 +6549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>419</v>
       </c>
@@ -6546,7 +6557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -6557,7 +6568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -6568,8 +6579,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>420</v>
       </c>
@@ -6577,7 +6588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>421</v>
       </c>
@@ -6585,9 +6596,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6601,26 +6612,26 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -6628,7 +6639,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6636,15 +6647,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6670,7 +6681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -6681,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -6692,7 +6703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -6717,14 +6728,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="6" customWidth="1"/>
-    <col min="2" max="8" width="20.42578125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="23.88671875" style="6" customWidth="1"/>
+    <col min="2" max="8" width="20.44140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6732,7 +6743,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6740,7 +6751,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -6748,7 +6759,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6756,15 +6767,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6790,7 +6801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>424</v>
       </c>
@@ -6798,7 +6809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -6809,7 +6820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -6820,8 +6831,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>425</v>
       </c>
@@ -6829,7 +6840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>426</v>
       </c>
@@ -6837,8 +6848,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>427</v>
       </c>
@@ -6849,7 +6860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
         <v>428</v>
       </c>
@@ -6857,7 +6868,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F16" s="6" t="s">
         <v>430</v>
       </c>
@@ -6865,7 +6876,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
         <v>432</v>
       </c>
@@ -6873,7 +6884,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="6" t="s">
         <v>433</v>
       </c>
@@ -6881,7 +6892,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="6" t="s">
         <v>435</v>
       </c>
@@ -6889,7 +6900,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="6" t="s">
         <v>437</v>
       </c>
@@ -6910,14 +6921,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="6" customWidth="1"/>
-    <col min="2" max="8" width="27.85546875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="26.88671875" style="6" customWidth="1"/>
+    <col min="2" max="8" width="27.88671875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6925,7 +6936,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6933,7 +6944,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -6941,7 +6952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6949,15 +6960,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6983,7 +6994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>443</v>
       </c>
@@ -6991,7 +7002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -7002,7 +7013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -7013,8 +7024,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>444</v>
       </c>
@@ -7022,7 +7033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>426</v>
       </c>
@@ -7043,14 +7054,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="6" customWidth="1"/>
-    <col min="2" max="7" width="25.5703125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="27.33203125" style="6" customWidth="1"/>
+    <col min="2" max="7" width="25.5546875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7066,7 +7077,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -7074,7 +7085,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -7082,15 +7093,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -7116,7 +7127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>449</v>
       </c>
@@ -7124,7 +7135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -7135,7 +7146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -7146,8 +7157,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>450</v>
       </c>
@@ -7155,7 +7166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>426</v>
       </c>
@@ -7163,8 +7174,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7178,14 +7189,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="6" customWidth="1"/>
-    <col min="2" max="9" width="27.140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="28.88671875" style="6" customWidth="1"/>
+    <col min="2" max="9" width="27.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7193,7 +7204,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7201,7 +7212,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -7209,7 +7220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -7217,15 +7228,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -7251,7 +7262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -7259,7 +7270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -7270,7 +7281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -7281,8 +7292,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>421</v>
       </c>
@@ -7290,7 +7301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7312,14 +7323,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="6" customWidth="1"/>
-    <col min="2" max="8" width="21.85546875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="27.109375" style="6" customWidth="1"/>
+    <col min="2" max="8" width="21.88671875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7345,7 +7356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -7353,7 +7364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -7374,14 +7385,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="6" customWidth="1"/>
-    <col min="2" max="7" width="27.85546875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="33.44140625" style="6" customWidth="1"/>
+    <col min="2" max="7" width="27.88671875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7407,7 +7418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -7415,7 +7426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>465</v>
       </c>
@@ -7423,7 +7434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>466</v>
       </c>
@@ -7444,14 +7455,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="6" customWidth="1"/>
-    <col min="2" max="7" width="27.42578125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="6"/>
+    <col min="2" max="7" width="27.44140625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7477,7 +7488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -7485,7 +7496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -7493,7 +7504,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>467</v>
       </c>
@@ -7501,7 +7512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>459</v>
       </c>
@@ -7522,19 +7533,19 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" style="6"/>
-    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="11.44140625" style="6"/>
+    <col min="6" max="6" width="16.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="14" style="6" customWidth="1"/>
     <col min="8" max="8" width="26" style="6" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="9" max="9" width="32.44140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7560,7 +7571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>458</v>
       </c>
@@ -7568,7 +7579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>475</v>
       </c>
@@ -7576,7 +7587,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>476</v>
       </c>
@@ -7584,7 +7595,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>477</v>
       </c>
@@ -7592,7 +7603,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>478</v>
       </c>
@@ -7600,7 +7611,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>479</v>
       </c>
@@ -7608,7 +7619,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>480</v>
       </c>
@@ -7616,7 +7627,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>481</v>
       </c>
@@ -7624,7 +7635,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>482</v>
       </c>
@@ -7635,7 +7646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F11" s="6" t="s">
         <v>473</v>
       </c>
@@ -7643,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="s">
         <v>474</v>
       </c>
@@ -7651,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>489</v>
       </c>
@@ -7662,7 +7673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F14" s="6" t="s">
         <v>473</v>
       </c>
@@ -7670,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
         <v>474</v>
       </c>
@@ -7678,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>490</v>
       </c>
@@ -7689,7 +7700,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
         <v>473</v>
       </c>
@@ -7697,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="6" t="s">
         <v>474</v>
       </c>
@@ -7718,14 +7729,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="10" customWidth="1"/>
     <col min="2" max="11" width="16" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="10"/>
+    <col min="12" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7751,7 +7762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>458</v>
       </c>
@@ -7759,7 +7770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>491</v>
       </c>
@@ -7767,7 +7778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>465</v>
       </c>
@@ -7788,14 +7799,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="10" customWidth="1"/>
     <col min="2" max="10" width="19" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="10"/>
+    <col min="11" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7821,7 +7832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>458</v>
       </c>
@@ -7829,7 +7840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>491</v>
       </c>
@@ -7837,7 +7848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>466</v>
       </c>
@@ -7855,19 +7866,19 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="5" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7875,7 +7886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7883,7 +7894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -7891,7 +7902,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -7899,15 +7910,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -7933,7 +7944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -7944,7 +7955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7955,7 +7966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -7969,7 +7980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -7983,7 +7994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -7994,7 +8005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -8005,7 +8016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -8016,18 +8027,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>599</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -8038,7 +8049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8049,7 +8060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -8071,33 +8082,33 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="10" customWidth="1"/>
     <col min="2" max="13" width="20" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="10"/>
+    <col min="14" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8123,33 +8134,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>35</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>426</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>183</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>444</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>468</v>
@@ -8168,30 +8179,30 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="10" customWidth="1"/>
-    <col min="2" max="7" width="29.85546875" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="25.88671875" style="10" customWidth="1"/>
+    <col min="2" max="7" width="29.88671875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8217,15 +8228,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
@@ -8233,25 +8244,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>15</v>
@@ -8270,14 +8281,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="10" customWidth="1"/>
-    <col min="2" max="12" width="29.7109375" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="33.44140625" style="10" customWidth="1"/>
+    <col min="2" max="12" width="29.6640625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8303,7 +8314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>458</v>
       </c>
@@ -8311,15 +8322,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>491</v>
       </c>
@@ -8327,39 +8338,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>516</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>467</v>
       </c>
@@ -8380,14 +8391,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="10" customWidth="1"/>
-    <col min="2" max="12" width="30.42578125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="26.33203125" style="10" customWidth="1"/>
+    <col min="2" max="12" width="30.44140625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8413,7 +8424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>458</v>
       </c>
@@ -8421,17 +8432,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>468</v>
@@ -8450,14 +8461,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="10" customWidth="1"/>
-    <col min="2" max="12" width="30.42578125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="26.33203125" style="10" customWidth="1"/>
+    <col min="2" max="12" width="30.44140625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8483,7 +8494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>458</v>
       </c>
@@ -8491,25 +8502,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>488</v>
@@ -8528,14 +8539,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="10" customWidth="1"/>
-    <col min="2" max="12" width="30.42578125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="26.33203125" style="10" customWidth="1"/>
+    <col min="2" max="12" width="30.44140625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8561,25 +8572,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>488</v>
@@ -8598,31 +8609,31 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="10" customWidth="1"/>
-    <col min="3" max="8" width="20.5703125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="27.109375" style="10" customWidth="1"/>
+    <col min="3" max="8" width="20.5546875" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8648,55 +8659,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>537</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -8704,9 +8715,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>487</v>
@@ -8715,7 +8726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="10" t="s">
         <v>473</v>
       </c>
@@ -8723,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13" s="10" t="s">
         <v>474</v>
       </c>
@@ -8744,14 +8755,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="10" customWidth="1"/>
-    <col min="2" max="7" width="33.5703125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="36.44140625" style="10" customWidth="1"/>
+    <col min="2" max="7" width="33.5546875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8777,97 +8788,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>15</v>
@@ -8886,14 +8897,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="10" customWidth="1"/>
-    <col min="2" max="8" width="24.7109375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="37.33203125" style="10" customWidth="1"/>
+    <col min="2" max="8" width="24.6640625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8919,9 +8930,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -8940,14 +8951,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="10" customWidth="1"/>
-    <col min="2" max="8" width="24.7109375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="37.33203125" style="10" customWidth="1"/>
+    <col min="2" max="8" width="24.6640625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8973,15 +8984,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>458</v>
       </c>
@@ -8989,15 +9000,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -9013,20 +9024,20 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="14" customWidth="1"/>
-    <col min="10" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="14" customWidth="1"/>
+    <col min="10" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9035,7 +9046,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9044,7 +9055,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -9053,7 +9064,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -9062,16 +9073,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9097,7 +9108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -9108,7 +9119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -9119,7 +9130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -9133,7 +9144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -9141,7 +9152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -9149,7 +9160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -9160,7 +9171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>66</v>
       </c>
@@ -9168,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>67</v>
       </c>
@@ -9176,7 +9187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>68</v>
       </c>
@@ -9184,7 +9195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -9195,7 +9206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>66</v>
       </c>
@@ -9203,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>67</v>
       </c>
@@ -9211,7 +9222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>68</v>
       </c>
@@ -9219,7 +9230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -9227,7 +9238,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -9235,7 +9246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>72</v>
       </c>
@@ -9246,7 +9257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>73</v>
       </c>
@@ -9254,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>74</v>
       </c>
@@ -9262,15 +9273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>75</v>
       </c>
@@ -9278,7 +9289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
@@ -9290,7 +9301,7 @@
       </c>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>77</v>
       </c>
@@ -9299,7 +9310,7 @@
       </c>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>78</v>
       </c>
@@ -9308,7 +9319,7 @@
       </c>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>79</v>
       </c>
@@ -9317,7 +9328,7 @@
       </c>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>80</v>
       </c>
@@ -9326,37 +9337,37 @@
       </c>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J42" s="15"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>81</v>
       </c>
@@ -9364,7 +9375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -9372,7 +9383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -9380,201 +9391,201 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="B57" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="B58" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="B59" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="B60" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="B61" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="B62" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="B63" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="B64" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>589</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -9594,23 +9605,23 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9619,7 +9630,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -9628,7 +9639,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -9637,16 +9648,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -9683,7 +9694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -9694,7 +9705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -9708,10 +9719,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -9720,7 +9731,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -9728,7 +9739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -9736,7 +9747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -9744,7 +9755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -9766,13 +9777,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9781,7 +9792,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9790,7 +9801,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -9799,7 +9810,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -9808,16 +9819,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9843,7 +9854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -9854,7 +9865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -9865,7 +9876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -9879,7 +9890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -9887,7 +9898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -9895,7 +9906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9903,7 +9914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -9911,7 +9922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -9919,7 +9930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>427</v>
       </c>
@@ -9927,9 +9938,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -9949,13 +9960,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9964,7 +9975,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9973,7 +9984,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -9982,7 +9993,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -9991,16 +10002,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -10026,7 +10037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -10037,7 +10048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -10048,7 +10059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10062,7 +10073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -10070,9 +10081,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -10092,13 +10103,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="23.5703125" customWidth="1"/>
-    <col min="14" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="13" width="23.5546875" customWidth="1"/>
+    <col min="14" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10107,7 +10118,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10116,7 +10127,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -10125,7 +10136,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -10134,16 +10145,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -10169,7 +10180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -10180,7 +10191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -10191,7 +10202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -10205,7 +10216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -10213,7 +10224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10221,7 +10232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -10229,7 +10240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -10237,7 +10248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -10245,7 +10256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -10253,7 +10264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -10261,7 +10272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -10275,7 +10286,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>118</v>
       </c>
@@ -10283,7 +10294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>120</v>
       </c>

--- a/Lamia/DBASE/create/Base2_0_6.xlsx
+++ b/Lamia/DBASE/create/Base2_0_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\OneDrive - ARTELIA\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\111_GitProjects\Lamia\Lamia\DBASE\create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{7DFCB7C3-DCDC-4798-B265-FF1ED640E230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{264B57F6-671D-46E0-95D8-4E65839AB31D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42F75C9-BF12-40AF-A399-0C38F5598E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="767" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="767" firstSheet="19" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="604">
   <si>
     <t>#DJAN</t>
   </si>
@@ -1873,19 +1873,38 @@
   </si>
   <si>
     <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>##DJAN</t>
+  </si>
+  <si>
+    <t>##QGIS</t>
+  </si>
+  <si>
+    <t>SELECT Pointtopo.* FROM Pointtopo</t>
+  </si>
+  <si>
+    <t>SELECT Graphiquedata.* FROM Graphiquedata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1986,39 +2005,40 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2363,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4261,7 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -5657,9 +5677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6010,10 +6028,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6023,143 +6041,143 @@
     <col min="10" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>600</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>601</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>565</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>382</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10"/>
+      <c r="A10" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>384</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>305</v>
-      </c>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>179</v>
+        <v>383</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>179</v>
+      <c r="F14" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>179</v>
@@ -6167,29 +6185,23 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>65</v>
+        <v>386</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>65</v>
+        <v>387</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -6200,12 +6212,34 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6216,155 +6250,155 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" style="6" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" style="6" customWidth="1"/>
     <col min="4" max="14" width="21" style="6" customWidth="1"/>
     <col min="15" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>395</v>
+      <c r="B2" s="21" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>600</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>601</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>565</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>399</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>179</v>
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>179</v>
+      <c r="F14" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>179</v>
@@ -6372,7 +6406,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>179</v>
@@ -6380,7 +6414,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>179</v>
@@ -6388,7 +6422,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>179</v>
@@ -6396,15 +6430,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>179</v>
@@ -6412,15 +6446,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>179</v>
@@ -6428,38 +6462,54 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>413</v>
+      <c r="A24" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>414</v>
+      <c r="A25" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>179</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>319</v>
       </c>
     </row>

--- a/Lamia/DBASE/create/Base2_0_6.xlsx
+++ b/Lamia/DBASE/create/Base2_0_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\111_GitProjects\Lamia\Lamia\DBASE\create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42F75C9-BF12-40AF-A399-0C38F5598E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3411AE-AF7F-48EE-9895-B9510EFE812A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="767" firstSheet="19" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13200" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="767" firstSheet="24" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="605">
   <si>
     <t>#DJAN</t>
   </si>
@@ -1885,6 +1885,9 @@
   </si>
   <si>
     <t>SELECT Graphiquedata.* FROM Graphiquedata</t>
+  </si>
+  <si>
+    <t>#ONLYONEPARENTTABLE</t>
   </si>
 </sst>
 </file>
@@ -6030,7 +6033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -6250,10 +6253,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6315,98 +6318,98 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>565</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
+        <v>604</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>179</v>
@@ -6414,7 +6417,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>179</v>
@@ -6422,7 +6425,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>179</v>
@@ -6430,7 +6433,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>179</v>
@@ -6438,7 +6441,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>179</v>
@@ -6446,23 +6449,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>179</v>
@@ -6470,7 +6473,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>179</v>
@@ -6478,15 +6481,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>413</v>
+      <c r="A26" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>179</v>
@@ -6494,22 +6497,30 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>319</v>
       </c>
     </row>
